--- a/Transformdas_m.xlsx
+++ b/Transformdas_m.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Frecuencia Maxima alcanzada</t>
+          <t>Frecuencia del primer armonico</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Frecuencia del segundo armonico</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Frecuencia tercer armonico</t>
         </is>
       </c>
     </row>
@@ -455,7 +465,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>301.253496322387</v>
+        <v>302.0822542214855</v>
+      </c>
+      <c r="D2" t="n">
+        <v>150.4195586864189</v>
+      </c>
+      <c r="E2" t="n">
+        <v>450.4299181601573</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +484,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>168.256130790191</v>
+        <v>168.2561307901906</v>
+      </c>
+      <c r="D3" t="n">
+        <v>335.8310626702996</v>
+      </c>
+      <c r="E3" t="n">
+        <v>502.7247956403271</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +503,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>261.5676016956795</v>
+        <v>260.8460358978987</v>
+      </c>
+      <c r="D4" t="n">
+        <v>395.0572742851982</v>
+      </c>
+      <c r="E4" t="n">
+        <v>130.9641922972851</v>
       </c>
     </row>
     <row r="5">
@@ -496,6 +524,12 @@
       <c r="C5" t="n">
         <v>299.7026759167493</v>
       </c>
+      <c r="D5" t="n">
+        <v>149.8513379583746</v>
+      </c>
+      <c r="E5" t="n">
+        <v>449.5540138751239</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -507,7 +541,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>144.0789473684208</v>
+        <v>144.0789473684217</v>
+      </c>
+      <c r="D6" t="n">
+        <v>290.1315789473683</v>
+      </c>
+      <c r="E6" t="n">
+        <v>434.8684210526312</v>
       </c>
     </row>
     <row r="7">
@@ -520,7 +560,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>193.4083283994473</v>
+        <v>193.4083283994478</v>
+      </c>
+      <c r="D7" t="n">
+        <v>386.8166567988947</v>
+      </c>
+      <c r="E7" t="n">
+        <v>580.2249851983424</v>
       </c>
     </row>
     <row r="8">
@@ -533,7 +579,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>151.0673234811165</v>
+        <v>150.2946005988606</v>
+      </c>
+      <c r="D8" t="n">
+        <v>300.2028397565919</v>
+      </c>
+      <c r="E8" t="n">
+        <v>454.7474162078624</v>
       </c>
     </row>
     <row r="9">
@@ -546,7 +598,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>205.1614997565325</v>
+        <v>205.161499756533</v>
+      </c>
+      <c r="D9" t="n">
+        <v>409.0245090082776</v>
+      </c>
+      <c r="E9" t="n">
+        <v>816.1012822593739</v>
       </c>
     </row>
     <row r="10">
@@ -559,7 +617,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>168.7681862269642</v>
+        <v>168.7681862269646</v>
+      </c>
+      <c r="D10" t="n">
+        <v>335.5965082444227</v>
+      </c>
+      <c r="E10" t="n">
+        <v>504.3646944713873</v>
       </c>
     </row>
     <row r="11">
@@ -572,7 +636,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>180.4611785674501</v>
+        <v>181.3523448813639</v>
+      </c>
+      <c r="D11" t="n">
+        <v>362.2591066057703</v>
+      </c>
+      <c r="E11" t="n">
+        <v>732.093126879804</v>
       </c>
     </row>
     <row r="12">
@@ -587,6 +657,12 @@
       <c r="C12" t="n">
         <v>164.0458988525288</v>
       </c>
+      <c r="D12" t="n">
+        <v>328.0917977050576</v>
+      </c>
+      <c r="E12" t="n">
+        <v>492.1376965575864</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -598,7 +674,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>190.2200019214142</v>
+        <v>189.4514362570849</v>
+      </c>
+      <c r="D13" t="n">
+        <v>380.0557210106635</v>
+      </c>
+      <c r="E13" t="n">
+        <v>569.1228744355844</v>
       </c>
     </row>
     <row r="14">
@@ -611,7 +693,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>183.6957842303486</v>
+        <v>183.6957842303482</v>
+      </c>
+      <c r="D14" t="n">
+        <v>368.3635038269954</v>
+      </c>
+      <c r="E14" t="n">
+        <v>549.1434819584492</v>
       </c>
     </row>
     <row r="15">
@@ -624,7 +712,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>324.6581385090426</v>
+        <v>324.6581385090431</v>
+      </c>
+      <c r="D15" t="n">
+        <v>164.0935156594624</v>
+      </c>
+      <c r="E15" t="n">
+        <v>490.5161005734453</v>
       </c>
     </row>
     <row r="16">
@@ -637,7 +731,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>166.5045710951176</v>
+        <v>166.5045710951181</v>
+      </c>
+      <c r="D16" t="n">
+        <v>336.1213771639759</v>
+      </c>
+      <c r="E16" t="n">
+        <v>501.0698307722232</v>
       </c>
     </row>
     <row r="17">
@@ -650,7 +750,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>170.7112970711296</v>
+        <v>171.2262632764723</v>
+      </c>
+      <c r="D17" t="n">
+        <v>337.0453813968461</v>
+      </c>
+      <c r="E17" t="n">
+        <v>516.2536208561314</v>
       </c>
     </row>
     <row r="18">
@@ -665,6 +771,12 @@
       <c r="C18" t="n">
         <v>163.9610389610389</v>
       </c>
+      <c r="D18" t="n">
+        <v>321.4285714285716</v>
+      </c>
+      <c r="E18" t="n">
+        <v>482.1428571428573</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -676,7 +788,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>165.9886086248985</v>
+        <v>166.9185167964661</v>
+      </c>
+      <c r="D19" t="n">
+        <v>331.5122631640129</v>
+      </c>
+      <c r="E19" t="n">
+        <v>501.6854585609672</v>
       </c>
     </row>
     <row r="20">
@@ -689,7 +807,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>461.9599578503694</v>
+        <v>461.9599578503685</v>
+      </c>
+      <c r="D20" t="n">
+        <v>230.9799789251847</v>
+      </c>
+      <c r="E20" t="n">
+        <v>354.0569020021076</v>
       </c>
     </row>
     <row r="21">
@@ -704,6 +828,12 @@
       <c r="C21" t="n">
         <v>379.0322580645161</v>
       </c>
+      <c r="D21" t="n">
+        <v>250.5040322580644</v>
+      </c>
+      <c r="E21" t="n">
+        <v>126.0080645161288</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -715,7 +845,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>149.8643595571521</v>
+        <v>150.4509128235213</v>
+      </c>
+      <c r="D22" t="n">
+        <v>301.1951022802259</v>
+      </c>
+      <c r="E22" t="n">
+        <v>451.3527384705631</v>
       </c>
     </row>
     <row r="23">
@@ -728,7 +864,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>339.226850464489</v>
+        <v>339.2268504644899</v>
+      </c>
+      <c r="D23" t="n">
+        <v>169.0140845070418</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1353.311357506743</v>
       </c>
     </row>
     <row r="24">
@@ -741,7 +883,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>141.101862861673</v>
+        <v>140.4676971858898</v>
+      </c>
+      <c r="D24" t="n">
+        <v>422.6714229092349</v>
+      </c>
+      <c r="E24" t="n">
+        <v>281.8866428854535</v>
       </c>
     </row>
     <row r="25">
@@ -754,7 +902,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>187.4143757420766</v>
+        <v>188.1450360763547</v>
+      </c>
+      <c r="D25" t="n">
+        <v>373.732760982738</v>
+      </c>
+      <c r="E25" t="n">
+        <v>562.2431272262306</v>
       </c>
     </row>
     <row r="26">
@@ -767,7 +921,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>151.6809046770327</v>
+        <v>152.1725769774448</v>
+      </c>
+      <c r="D26" t="n">
+        <v>304.0993178046829</v>
+      </c>
+      <c r="E26" t="n">
+        <v>455.5343863315102</v>
       </c>
     </row>
     <row r="27">
@@ -780,7 +940,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>162.8254236187754</v>
+        <v>163.3448029604624</v>
+      </c>
+      <c r="D27" t="n">
+        <v>488.9956501980132</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1302.343699279361</v>
       </c>
     </row>
     <row r="28">
@@ -793,7 +959,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>401.7991004497753</v>
+        <v>400.9995002498754</v>
+      </c>
+      <c r="D28" t="n">
+        <v>275.4622688655672</v>
+      </c>
+      <c r="E28" t="n">
+        <v>133.9330334832584</v>
       </c>
     </row>
     <row r="29">
@@ -806,7 +978,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>332.0909908752087</v>
+        <v>332.0909908752092</v>
+      </c>
+      <c r="D29" t="n">
+        <v>166.5595681788973</v>
+      </c>
+      <c r="E29" t="n">
+        <v>498.1364863128128</v>
       </c>
     </row>
     <row r="30">
@@ -819,7 +997,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>248.3605413701689</v>
+        <v>249.4767685223942</v>
+      </c>
+      <c r="D30" t="n">
+        <v>497.2791963164505</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1246.267615459746</v>
       </c>
     </row>
     <row r="31">
@@ -832,7 +1016,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>257.867633034522</v>
+        <v>257.8676330345224</v>
+      </c>
+      <c r="D31" t="n">
+        <v>513.4465000953651</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3089.834064466909</v>
       </c>
     </row>
     <row r="32">
@@ -845,7 +1035,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>285.3297442799458</v>
+        <v>286.0475549573803</v>
+      </c>
+      <c r="D32" t="n">
+        <v>572.4540152534773</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1433.826828174069</v>
       </c>
     </row>
     <row r="33">
@@ -858,7 +1054,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>246.0383653044205</v>
+        <v>246.03836530442</v>
+      </c>
+      <c r="D33" t="n">
+        <v>491.2427022518768</v>
+      </c>
+      <c r="E33" t="n">
+        <v>984.9874895746452</v>
       </c>
     </row>
     <row r="34">
@@ -871,7 +1073,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>495.4587337106755</v>
+        <v>496.5117809661706</v>
+      </c>
+      <c r="D34" t="n">
+        <v>246.939581413716</v>
+      </c>
+      <c r="E34" t="n">
+        <v>738.712649730156</v>
       </c>
     </row>
     <row r="35">
@@ -884,7 +1092,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>259.5795030490581</v>
+        <v>260.3076362974425</v>
+      </c>
+      <c r="D35" t="n">
+        <v>518.066806225539</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1038.682078820424</v>
       </c>
     </row>
     <row r="36">
@@ -897,7 +1111,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>229.4855337217341</v>
+        <v>230.2755011355785</v>
+      </c>
+      <c r="D36" t="n">
+        <v>918.3371185938577</v>
+      </c>
+      <c r="E36" t="n">
+        <v>689.2465685790457</v>
       </c>
     </row>
     <row r="37">
@@ -910,7 +1130,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>225.6877049728937</v>
+        <v>225.1522655779399</v>
+      </c>
+      <c r="D37" t="n">
+        <v>452.1785690382167</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1129.509403654374</v>
       </c>
     </row>
     <row r="38">
@@ -923,7 +1149,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>214.5110410094635</v>
+        <v>215.3812683563583</v>
+      </c>
+      <c r="D38" t="n">
+        <v>427.7167409985859</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1074.295659741108</v>
       </c>
     </row>
     <row r="39">
@@ -936,7 +1168,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>211.8757233152319</v>
+        <v>212.5879106204929</v>
+      </c>
+      <c r="D39" t="n">
+        <v>424.8197275883558</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1273.034808154544</v>
       </c>
     </row>
     <row r="40">
@@ -951,6 +1189,12 @@
       <c r="C40" t="n">
         <v>278.0943697287439</v>
       </c>
+      <c r="D40" t="n">
+        <v>557.1005242762712</v>
+      </c>
+      <c r="E40" t="n">
+        <v>834.2831091862317</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -962,7 +1206,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>261.7621899059027</v>
+        <v>261.7621899059022</v>
+      </c>
+      <c r="D41" t="n">
+        <v>784.4311377245513</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1833.190761334474</v>
       </c>
     </row>
     <row r="42">
@@ -975,7 +1225,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>277.1337288909176</v>
+        <v>277.8639890460972</v>
+      </c>
+      <c r="D42" t="n">
+        <v>553.1720675490642</v>
+      </c>
+      <c r="E42" t="n">
+        <v>831.4011866727524</v>
       </c>
     </row>
     <row r="43">
@@ -988,7 +1244,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>172.5298256347505</v>
+        <v>173.34556949118</v>
+      </c>
+      <c r="D43" t="n">
+        <v>345.4675231977158</v>
+      </c>
+      <c r="E43" t="n">
+        <v>520.036708473539</v>
       </c>
     </row>
     <row r="44">
@@ -1001,7 +1263,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>293.8582338388728</v>
+        <v>294.7187264709046</v>
+      </c>
+      <c r="D44" t="n">
+        <v>147.5744863934601</v>
+      </c>
+      <c r="E44" t="n">
+        <v>442.7234591803808</v>
       </c>
     </row>
     <row r="45">
@@ -1014,7 +1282,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>209.1119042620198</v>
+        <v>209.6717754916372</v>
+      </c>
+      <c r="D45" t="n">
+        <v>420.1833578276996</v>
+      </c>
+      <c r="E45" t="n">
+        <v>339.5619007628247</v>
       </c>
     </row>
     <row r="46">
@@ -1027,7 +1301,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>199.3869119019059</v>
+        <v>199.3869119019055</v>
+      </c>
+      <c r="D46" t="n">
+        <v>395.0419832067173</v>
+      </c>
+      <c r="E46" t="n">
+        <v>597.0944955351197</v>
       </c>
     </row>
     <row r="47">
@@ -1040,7 +1320,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>201.9932075051497</v>
+        <v>202.4386170035077</v>
+      </c>
+      <c r="D47" t="n">
+        <v>404.6545292578362</v>
+      </c>
+      <c r="E47" t="n">
+        <v>608.2066700072378</v>
       </c>
     </row>
     <row r="48">
@@ -1055,6 +1341,12 @@
       <c r="C48" t="n">
         <v>234.4582593250443</v>
       </c>
+      <c r="D48" t="n">
+        <v>471.0479573712255</v>
+      </c>
+      <c r="E48" t="n">
+        <v>942.095914742451</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1066,7 +1358,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>242.2657952069717</v>
+        <v>242.9629629629635</v>
+      </c>
+      <c r="D49" t="n">
+        <v>484.8801742919395</v>
+      </c>
+      <c r="E49" t="n">
+        <v>972.8976034858388</v>
       </c>
     </row>
   </sheetData>
